--- a/res/References_absoluescomp.xlsx
+++ b/res/References_absoluescomp.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my-rog\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IUTtravail\cours\excel\Excel20192020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04AFBDFE-D9C3-4238-B24F-22515633EEDB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E34335C-D0CF-4D6C-AD60-CDB4C371FA2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="36" windowWidth="14052" windowHeight="7656" activeTab="2"/>
+    <workbookView xWindow="1092" yWindow="1356" windowWidth="21948" windowHeight="11604" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercice 1" sheetId="6" r:id="rId1"/>
     <sheet name="Exercice 2" sheetId="8" r:id="rId2"/>
     <sheet name="Exercice 3" sheetId="12" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -225,13 +232,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="183" formatCode="mmmm"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="168" formatCode="mmmm"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -244,6 +251,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -651,20 +659,20 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -673,13 +681,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,7 +709,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -715,7 +723,7 @@
     <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,19 +738,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,12 +759,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -789,10 +797,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Financier0" xfId="1"/>
+    <cellStyle name="Financier0" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Milliers" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -832,7 +840,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1704B4-EDF1-4A34-B08F-9AE42CAC3806}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -892,7 +900,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6009554E-468F-4F79-802F-9D674075ECDF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -947,7 +955,7 @@
                   <a14:compatExt spid="_x0000_s6149"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17AE8EA-713B-498F-A323-3C4697FEC101}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1007,7 +1015,7 @@
                   <a14:compatExt spid="_x0000_s8194"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6448636A-5474-42B1-9470-5DD2635ECF6A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002200000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,10 +1370,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1834,7 +1842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2337,7 +2345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
